--- a/All variables_thirdpillar.xlsx
+++ b/All variables_thirdpillar.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rodekruisvlaanderen.sharepoint.com/sites/ah-AH-ThirdPillarResearchCenter/Gedeelde documenten/General/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_CF9D7BF31850C54714073212B2FDBC08E70D5729" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{537F28B6-5B15-4E4F-8033-68CEBDB9A667}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Read Me" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13364" uniqueCount="3592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13367" uniqueCount="3595">
   <si>
     <t>Country</t>
   </si>
@@ -10788,16 +10797,46 @@
   </si>
   <si>
     <t>648.801663984793</t>
+  </si>
+  <si>
+    <t>To cite this dataset, use: Fritz Schiltz, Kelsey J MacKay, Philippe Vandekerckhove, Measuring the Size of the “Third Pillar”: A Global Dataset, The World Bank Economic Review, Volume 38, Issue 4, November 2024, Pages 861–873, https://doi.org/10.1093/wber/lhae012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To construct this dataset, visit: https://github.com/Belgian-Red-Cross-Flanders/Third-Pillar-Global-Dataset </t>
+  </si>
+  <si>
+    <t>The size of the third sector is measured using percentage of total employment, using the column "Total". This includes both paid staff and volunteers. For more details, see GitHub (https://github.com/Belgian-Red-Cross-Flanders/Third-Pillar-Global-Dataset) or the article (https://doi.org/10.1093/wber/lhae012).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -10809,7 +10848,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -10824,22 +10863,373 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78786BDA-0250-486E-9D10-3395DAD11DB8}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="164.453125" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.65">
+      <c r="A1" s="4" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.65">
+      <c r="A2" s="4" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG405"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -10937,7 +11327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -11038,7 +11428,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -11139,7 +11529,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -11240,7 +11630,7 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -11341,7 +11731,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -11442,7 +11832,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -11543,7 +11933,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -11644,7 +12034,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -11745,7 +12135,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -11846,7 +12236,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -11947,7 +12337,7 @@
         <v>3469</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -12048,7 +12438,7 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -12149,7 +12539,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -12250,7 +12640,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -12351,7 +12741,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -12452,7 +12842,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -12553,7 +12943,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -12654,7 +13044,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -12755,7 +13145,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -12856,7 +13246,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -12957,7 +13347,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -13058,7 +13448,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -13159,7 +13549,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -13260,7 +13650,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -13361,7 +13751,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -13462,7 +13852,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -13563,7 +13953,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -13664,7 +14054,7 @@
         <v>3471</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -13765,7 +14155,7 @@
         <v>3472</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -13866,7 +14256,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -13967,7 +14357,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -14068,7 +14458,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -14169,7 +14559,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -14270,7 +14660,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -14371,7 +14761,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -14472,7 +14862,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -14573,7 +14963,7 @@
         <v>3474</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -14674,7 +15064,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -14775,7 +15165,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -14876,7 +15266,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -14977,7 +15367,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -15078,7 +15468,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -15179,7 +15569,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -15280,7 +15670,7 @@
         <v>3476</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -15381,7 +15771,7 @@
         <v>3477</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -15482,7 +15872,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -15583,7 +15973,7 @@
         <v>3478</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -15684,7 +16074,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -15785,7 +16175,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -15886,7 +16276,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -15987,7 +16377,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -16088,7 +16478,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -16189,7 +16579,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -16290,7 +16680,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -16391,7 +16781,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -16492,7 +16882,7 @@
         <v>3483</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -16593,7 +16983,7 @@
         <v>3484</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -16694,7 +17084,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -16795,7 +17185,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -16896,7 +17286,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -16997,7 +17387,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -17098,7 +17488,7 @@
         <v>3486</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -17199,7 +17589,7 @@
         <v>3487</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -17300,7 +17690,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -17401,7 +17791,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -17502,7 +17892,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -17603,7 +17993,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>98</v>
       </c>
@@ -17704,7 +18094,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>99</v>
       </c>
@@ -17805,7 +18195,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -17906,7 +18296,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>101</v>
       </c>
@@ -18007,7 +18397,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -18108,7 +18498,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -18209,7 +18599,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>104</v>
       </c>
@@ -18310,7 +18700,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>105</v>
       </c>
@@ -18411,7 +18801,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -18512,7 +18902,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>107</v>
       </c>
@@ -18613,7 +19003,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>108</v>
       </c>
@@ -18714,7 +19104,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>109</v>
       </c>
@@ -18815,7 +19205,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>110</v>
       </c>
@@ -18916,7 +19306,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>111</v>
       </c>
@@ -19017,7 +19407,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -19118,7 +19508,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -19219,7 +19609,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -19320,7 +19710,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>115</v>
       </c>
@@ -19421,7 +19811,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -19522,7 +19912,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>117</v>
       </c>
@@ -19623,7 +20013,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -19724,7 +20114,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -19825,7 +20215,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>120</v>
       </c>
@@ -19926,7 +20316,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>121</v>
       </c>
@@ -20027,7 +20417,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>122</v>
       </c>
@@ -20128,7 +20518,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>123</v>
       </c>
@@ -20229,7 +20619,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>124</v>
       </c>
@@ -20330,7 +20720,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>125</v>
       </c>
@@ -20431,7 +20821,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>126</v>
       </c>
@@ -20532,7 +20922,7 @@
         <v>3494</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>127</v>
       </c>
@@ -20633,7 +21023,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>128</v>
       </c>
@@ -20734,7 +21124,7 @@
         <v>3496</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>129</v>
       </c>
@@ -20835,7 +21225,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>130</v>
       </c>
@@ -20936,7 +21326,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>131</v>
       </c>
@@ -21037,7 +21427,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>132</v>
       </c>
@@ -21138,7 +21528,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>133</v>
       </c>
@@ -21239,7 +21629,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>134</v>
       </c>
@@ -21340,7 +21730,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>135</v>
       </c>
@@ -21441,7 +21831,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>136</v>
       </c>
@@ -21542,7 +21932,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>137</v>
       </c>
@@ -21643,7 +22033,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>138</v>
       </c>
@@ -21744,7 +22134,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>139</v>
       </c>
@@ -21845,7 +22235,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>140</v>
       </c>
@@ -21946,7 +22336,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>141</v>
       </c>
@@ -22047,7 +22437,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>142</v>
       </c>
@@ -22148,7 +22538,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>143</v>
       </c>
@@ -22249,7 +22639,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>144</v>
       </c>
@@ -22350,7 +22740,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>145</v>
       </c>
@@ -22451,7 +22841,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>146</v>
       </c>
@@ -22552,7 +22942,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>147</v>
       </c>
@@ -22653,7 +23043,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>148</v>
       </c>
@@ -22754,7 +23144,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>149</v>
       </c>
@@ -22855,7 +23245,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>150</v>
       </c>
@@ -22956,7 +23346,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>151</v>
       </c>
@@ -23057,7 +23447,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>152</v>
       </c>
@@ -23158,7 +23548,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>153</v>
       </c>
@@ -23259,7 +23649,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>154</v>
       </c>
@@ -23360,7 +23750,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>155</v>
       </c>
@@ -23461,7 +23851,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>156</v>
       </c>
@@ -23562,7 +23952,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>157</v>
       </c>
@@ -23663,7 +24053,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>158</v>
       </c>
@@ -23764,7 +24154,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>159</v>
       </c>
@@ -23865,7 +24255,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>160</v>
       </c>
@@ -23966,7 +24356,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>161</v>
       </c>
@@ -24067,7 +24457,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>162</v>
       </c>
@@ -24168,7 +24558,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>163</v>
       </c>
@@ -24269,7 +24659,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>164</v>
       </c>
@@ -24370,7 +24760,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>165</v>
       </c>
@@ -24471,7 +24861,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>166</v>
       </c>
@@ -24572,7 +24962,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>167</v>
       </c>
@@ -24673,7 +25063,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>168</v>
       </c>
@@ -24774,7 +25164,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>169</v>
       </c>
@@ -24875,7 +25265,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>170</v>
       </c>
@@ -24976,7 +25366,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>171</v>
       </c>
@@ -25077,7 +25467,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>172</v>
       </c>
@@ -25178,7 +25568,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>173</v>
       </c>
@@ -25279,7 +25669,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>174</v>
       </c>
@@ -25380,7 +25770,7 @@
         <v>3505</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>175</v>
       </c>
@@ -25481,7 +25871,7 @@
         <v>3506</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>176</v>
       </c>
@@ -25582,7 +25972,7 @@
         <v>3507</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>177</v>
       </c>
@@ -25683,7 +26073,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>178</v>
       </c>
@@ -25784,7 +26174,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>179</v>
       </c>
@@ -25885,7 +26275,7 @@
         <v>3509</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>180</v>
       </c>
@@ -25986,7 +26376,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>181</v>
       </c>
@@ -26087,7 +26477,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>182</v>
       </c>
@@ -26188,7 +26578,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>183</v>
       </c>
@@ -26289,7 +26679,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>184</v>
       </c>
@@ -26390,7 +26780,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>185</v>
       </c>
@@ -26491,7 +26881,7 @@
         <v>3511</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>186</v>
       </c>
@@ -26592,7 +26982,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>187</v>
       </c>
@@ -26693,7 +27083,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>188</v>
       </c>
@@ -26794,7 +27184,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>189</v>
       </c>
@@ -26895,7 +27285,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>190</v>
       </c>
@@ -26996,7 +27386,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>191</v>
       </c>
@@ -27097,7 +27487,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>192</v>
       </c>
@@ -27198,7 +27588,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>193</v>
       </c>
@@ -27299,7 +27689,7 @@
         <v>3514</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>194</v>
       </c>
@@ -27400,7 +27790,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>195</v>
       </c>
@@ -27501,7 +27891,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>196</v>
       </c>
@@ -27602,7 +27992,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>197</v>
       </c>
@@ -27703,7 +28093,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>198</v>
       </c>
@@ -27804,7 +28194,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>199</v>
       </c>
@@ -27905,7 +28295,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>200</v>
       </c>
@@ -28006,7 +28396,7 @@
         <v>3516</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>201</v>
       </c>
@@ -28107,7 +28497,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>202</v>
       </c>
@@ -28208,7 +28598,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>203</v>
       </c>
@@ -28309,7 +28699,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>204</v>
       </c>
@@ -28410,7 +28800,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>205</v>
       </c>
@@ -28511,7 +28901,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>206</v>
       </c>
@@ -28612,7 +29002,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>207</v>
       </c>
@@ -28713,7 +29103,7 @@
         <v>3521</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>208</v>
       </c>
@@ -28814,7 +29204,7 @@
         <v>3522</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>209</v>
       </c>
@@ -28915,7 +29305,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>210</v>
       </c>
@@ -29016,7 +29406,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>211</v>
       </c>
@@ -29117,7 +29507,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>212</v>
       </c>
@@ -29218,7 +29608,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>213</v>
       </c>
@@ -29319,7 +29709,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>214</v>
       </c>
@@ -29420,7 +29810,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>215</v>
       </c>
@@ -29521,7 +29911,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>216</v>
       </c>
@@ -29622,7 +30012,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>217</v>
       </c>
@@ -29723,7 +30113,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>218</v>
       </c>
@@ -29824,7 +30214,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>219</v>
       </c>
@@ -29925,7 +30315,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>220</v>
       </c>
@@ -30026,7 +30416,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>221</v>
       </c>
@@ -30127,7 +30517,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>222</v>
       </c>
@@ -30228,7 +30618,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>223</v>
       </c>
@@ -30329,7 +30719,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>224</v>
       </c>
@@ -30430,7 +30820,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>225</v>
       </c>
@@ -30531,7 +30921,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>226</v>
       </c>
@@ -30632,7 +31022,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>227</v>
       </c>
@@ -30733,7 +31123,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>228</v>
       </c>
@@ -30834,7 +31224,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>229</v>
       </c>
@@ -30935,7 +31325,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>230</v>
       </c>
@@ -31036,7 +31426,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>231</v>
       </c>
@@ -31137,7 +31527,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>232</v>
       </c>
@@ -31238,7 +31628,7 @@
         <v>3530</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>233</v>
       </c>
@@ -31339,7 +31729,7 @@
         <v>3531</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>234</v>
       </c>
@@ -31440,7 +31830,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>235</v>
       </c>
@@ -31541,7 +31931,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>236</v>
       </c>
@@ -31642,7 +32032,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>237</v>
       </c>
@@ -31743,7 +32133,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>238</v>
       </c>
@@ -31844,7 +32234,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>239</v>
       </c>
@@ -31945,7 +32335,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>240</v>
       </c>
@@ -32046,7 +32436,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>241</v>
       </c>
@@ -32147,7 +32537,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>242</v>
       </c>
@@ -32248,7 +32638,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>243</v>
       </c>
@@ -32349,7 +32739,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>244</v>
       </c>
@@ -32450,7 +32840,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>245</v>
       </c>
@@ -32551,7 +32941,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>246</v>
       </c>
@@ -32652,7 +33042,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>247</v>
       </c>
@@ -32753,7 +33143,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>248</v>
       </c>
@@ -32854,7 +33244,7 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>249</v>
       </c>
@@ -32955,7 +33345,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>250</v>
       </c>
@@ -33056,7 +33446,7 @@
         <v>3537</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>251</v>
       </c>
@@ -33157,7 +33547,7 @@
         <v>3538</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>252</v>
       </c>
@@ -33258,7 +33648,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>253</v>
       </c>
@@ -33359,7 +33749,7 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>254</v>
       </c>
@@ -33460,7 +33850,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>255</v>
       </c>
@@ -33561,7 +33951,7 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>256</v>
       </c>
@@ -33662,7 +34052,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>257</v>
       </c>
@@ -33763,7 +34153,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>258</v>
       </c>
@@ -33864,7 +34254,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>259</v>
       </c>
@@ -33965,7 +34355,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>260</v>
       </c>
@@ -34066,7 +34456,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>261</v>
       </c>
@@ -34167,7 +34557,7 @@
         <v>3542</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>262</v>
       </c>
@@ -34268,7 +34658,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>263</v>
       </c>
@@ -34369,7 +34759,7 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>264</v>
       </c>
@@ -34470,7 +34860,7 @@
         <v>3544</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>265</v>
       </c>
@@ -34571,7 +34961,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>266</v>
       </c>
@@ -34672,7 +35062,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>267</v>
       </c>
@@ -34773,7 +35163,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>268</v>
       </c>
@@ -34874,7 +35264,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>269</v>
       </c>
@@ -34975,7 +35365,7 @@
         <v>3546</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>270</v>
       </c>
@@ -35076,7 +35466,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>271</v>
       </c>
@@ -35177,7 +35567,7 @@
         <v>3547</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>272</v>
       </c>
@@ -35278,7 +35668,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>273</v>
       </c>
@@ -35379,7 +35769,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>274</v>
       </c>
@@ -35480,7 +35870,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>275</v>
       </c>
@@ -35581,7 +35971,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>276</v>
       </c>
@@ -35682,7 +36072,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>277</v>
       </c>
@@ -35783,7 +36173,7 @@
         <v>3551</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>278</v>
       </c>
@@ -35884,7 +36274,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>279</v>
       </c>
@@ -35985,7 +36375,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>280</v>
       </c>
@@ -36086,7 +36476,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>281</v>
       </c>
@@ -36187,7 +36577,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>282</v>
       </c>
@@ -36288,7 +36678,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>283</v>
       </c>
@@ -36389,7 +36779,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>284</v>
       </c>
@@ -36490,7 +36880,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>285</v>
       </c>
@@ -36591,7 +36981,7 @@
         <v>3552</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>286</v>
       </c>
@@ -36692,7 +37082,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>287</v>
       </c>
@@ -36793,7 +37183,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>288</v>
       </c>
@@ -36894,7 +37284,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>289</v>
       </c>
@@ -36995,7 +37385,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>290</v>
       </c>
@@ -37096,7 +37486,7 @@
         <v>3553</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>291</v>
       </c>
@@ -37197,7 +37587,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>292</v>
       </c>
@@ -37298,7 +37688,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>293</v>
       </c>
@@ -37399,7 +37789,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>294</v>
       </c>
@@ -37500,7 +37890,7 @@
         <v>3554</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>295</v>
       </c>
@@ -37601,7 +37991,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>296</v>
       </c>
@@ -37702,7 +38092,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>297</v>
       </c>
@@ -37803,7 +38193,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>298</v>
       </c>
@@ -37904,7 +38294,7 @@
         <v>3555</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>299</v>
       </c>
@@ -38005,7 +38395,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>300</v>
       </c>
@@ -38106,7 +38496,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>301</v>
       </c>
@@ -38207,7 +38597,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>302</v>
       </c>
@@ -38308,7 +38698,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>303</v>
       </c>
@@ -38409,7 +38799,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>304</v>
       </c>
@@ -38510,7 +38900,7 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>305</v>
       </c>
@@ -38611,7 +39001,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>306</v>
       </c>
@@ -38712,7 +39102,7 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>307</v>
       </c>
@@ -38813,7 +39203,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>308</v>
       </c>
@@ -38914,7 +39304,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>309</v>
       </c>
@@ -39015,7 +39405,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>310</v>
       </c>
@@ -39116,7 +39506,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>311</v>
       </c>
@@ -39217,7 +39607,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>312</v>
       </c>
@@ -39318,7 +39708,7 @@
         <v>3564</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>313</v>
       </c>
@@ -39419,7 +39809,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>314</v>
       </c>
@@ -39520,7 +39910,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>315</v>
       </c>
@@ -39621,7 +40011,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>316</v>
       </c>
@@ -39722,7 +40112,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>317</v>
       </c>
@@ -39823,7 +40213,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>318</v>
       </c>
@@ -39924,7 +40314,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>319</v>
       </c>
@@ -40025,7 +40415,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>320</v>
       </c>
@@ -40126,7 +40516,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>321</v>
       </c>
@@ -40227,7 +40617,7 @@
         <v>3566</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>322</v>
       </c>
@@ -40328,7 +40718,7 @@
         <v>3567</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>323</v>
       </c>
@@ -40429,7 +40819,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>324</v>
       </c>
@@ -40530,7 +40920,7 @@
         <v>3568</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>325</v>
       </c>
@@ -40631,7 +41021,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>326</v>
       </c>
@@ -40732,7 +41122,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>327</v>
       </c>
@@ -40833,7 +41223,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>328</v>
       </c>
@@ -40934,7 +41324,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>329</v>
       </c>
@@ -41035,7 +41425,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>330</v>
       </c>
@@ -41136,7 +41526,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>331</v>
       </c>
@@ -41237,7 +41627,7 @@
         <v>3571</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>332</v>
       </c>
@@ -41338,7 +41728,7 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>333</v>
       </c>
@@ -41439,7 +41829,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>334</v>
       </c>
@@ -41540,7 +41930,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>335</v>
       </c>
@@ -41641,7 +42031,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>336</v>
       </c>
@@ -41742,7 +42132,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>337</v>
       </c>
@@ -41843,7 +42233,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>338</v>
       </c>
@@ -41944,7 +42334,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>339</v>
       </c>
@@ -42045,7 +42435,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>340</v>
       </c>
@@ -42146,7 +42536,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>341</v>
       </c>
@@ -42247,7 +42637,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>342</v>
       </c>
@@ -42348,7 +42738,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>343</v>
       </c>
@@ -42449,7 +42839,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>344</v>
       </c>
@@ -42550,7 +42940,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>345</v>
       </c>
@@ -42651,7 +43041,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>346</v>
       </c>
@@ -42752,7 +43142,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>347</v>
       </c>
@@ -42853,7 +43243,7 @@
         <v>3573</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>348</v>
       </c>
@@ -42954,7 +43344,7 @@
         <v>3574</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>349</v>
       </c>
@@ -43055,7 +43445,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>350</v>
       </c>
@@ -43156,7 +43546,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>351</v>
       </c>
@@ -43257,7 +43647,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>352</v>
       </c>
@@ -43358,7 +43748,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>353</v>
       </c>
@@ -43459,7 +43849,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>354</v>
       </c>
@@ -43560,7 +43950,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>355</v>
       </c>
@@ -43661,7 +44051,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>356</v>
       </c>
@@ -43762,7 +44152,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>357</v>
       </c>
@@ -43863,7 +44253,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>358</v>
       </c>
@@ -43964,7 +44354,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>359</v>
       </c>
@@ -44065,7 +44455,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>360</v>
       </c>
@@ -44166,7 +44556,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>361</v>
       </c>
@@ -44267,7 +44657,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>362</v>
       </c>
@@ -44368,7 +44758,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>363</v>
       </c>
@@ -44469,7 +44859,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>364</v>
       </c>
@@ -44570,7 +44960,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>365</v>
       </c>
@@ -44671,7 +45061,7 @@
         <v>3577</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>366</v>
       </c>
@@ -44772,7 +45162,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>367</v>
       </c>
@@ -44873,7 +45263,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>368</v>
       </c>
@@ -44974,7 +45364,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>369</v>
       </c>
@@ -45075,7 +45465,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>370</v>
       </c>
@@ -45176,7 +45566,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>371</v>
       </c>
@@ -45277,7 +45667,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>372</v>
       </c>
@@ -45378,7 +45768,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>373</v>
       </c>
@@ -45479,7 +45869,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>374</v>
       </c>
@@ -45580,7 +45970,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>375</v>
       </c>
@@ -45681,7 +46071,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>376</v>
       </c>
@@ -45782,7 +46172,7 @@
         <v>3579</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>377</v>
       </c>
@@ -45883,7 +46273,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>378</v>
       </c>
@@ -45984,7 +46374,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>379</v>
       </c>
@@ -46085,7 +46475,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>380</v>
       </c>
@@ -46186,7 +46576,7 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>381</v>
       </c>
@@ -46287,7 +46677,7 @@
         <v>3581</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>382</v>
       </c>
@@ -46388,7 +46778,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>383</v>
       </c>
@@ -46489,7 +46879,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>384</v>
       </c>
@@ -46590,7 +46980,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>385</v>
       </c>
@@ -46691,7 +47081,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>386</v>
       </c>
@@ -46792,7 +47182,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>387</v>
       </c>
@@ -46893,7 +47283,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>388</v>
       </c>
@@ -46994,7 +47384,7 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>389</v>
       </c>
@@ -47095,7 +47485,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>390</v>
       </c>
@@ -47196,7 +47586,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>391</v>
       </c>
@@ -47297,7 +47687,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>392</v>
       </c>
@@ -47398,7 +47788,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -47499,7 +47889,7 @@
         <v>3587</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>394</v>
       </c>
@@ -47600,7 +47990,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -47701,7 +48091,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>396</v>
       </c>
@@ -47802,7 +48192,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -47903,7 +48293,7 @@
         <v>3589</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>398</v>
       </c>
@@ -48004,7 +48394,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -48105,7 +48495,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -48206,7 +48596,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -48307,7 +48697,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -48408,7 +48798,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -48509,7 +48899,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -48610,7 +49000,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -48711,7 +49101,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -48812,7 +49202,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -48913,7 +49303,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -49014,7 +49404,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -49115,7 +49505,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -49216,7 +49606,7 @@
         <v>3590</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>411</v>
       </c>
@@ -49317,7 +49707,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>412</v>
       </c>
@@ -49418,7 +49808,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>413</v>
       </c>
@@ -49519,7 +49909,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>414</v>
       </c>
@@ -49620,7 +50010,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>415</v>
       </c>
@@ -49721,7 +50111,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>416</v>
       </c>
@@ -49822,7 +50212,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>417</v>
       </c>
@@ -49923,7 +50313,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>418</v>
       </c>
@@ -50024,7 +50414,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>419</v>
       </c>
@@ -50125,7 +50515,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>420</v>
       </c>
@@ -50226,7 +50616,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>421</v>
       </c>
@@ -50327,7 +50717,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>422</v>
       </c>
@@ -50428,7 +50818,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>423</v>
       </c>
@@ -50529,7 +50919,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>424</v>
       </c>
@@ -50630,7 +51020,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>425</v>
       </c>
@@ -50731,7 +51121,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>426</v>
       </c>
@@ -50832,7 +51222,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>427</v>
       </c>
@@ -50933,7 +51323,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>428</v>
       </c>
@@ -51034,7 +51424,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>429</v>
       </c>
@@ -51135,7 +51525,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>430</v>
       </c>
@@ -51236,7 +51626,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>431</v>
       </c>
@@ -51337,7 +51727,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>432</v>
       </c>
@@ -51438,7 +51828,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>433</v>
       </c>
@@ -51539,7 +51929,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>434</v>
       </c>
@@ -51640,7 +52030,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>435</v>
       </c>
@@ -51742,6 +52132,284 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C835D7289E633748910BCD000B9F727E" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="0fdf28010732e0c790c24a8b93dd47c4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c13c8ee-05e2-4241-be9c-b96764146f8c" xmlns:ns3="b9773571-a692-4ba2-aaa9-1b93d11062ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43e3244bdc75a541003ef1f1738fc4a1" ns2:_="" ns3:_="">
+    <xsd:import namespace="4c13c8ee-05e2-4241-be9c-b96764146f8c"/>
+    <xsd:import namespace="b9773571-a692-4ba2-aaa9-1b93d11062ad"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c13c8ee-05e2-4241-be9c-b96764146f8c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="1309668b-48a0-4a22-89ec-54d057dce87a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b9773571-a692-4ba2-aaa9-1b93d11062ad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c7297d5d-4f1b-40e0-8aa5-c3f718aa79ed}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="b9773571-a692-4ba2-aaa9-1b93d11062ad">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Gedeeld met" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Gedeeld met details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhoudstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c13c8ee-05e2-4241-be9c-b96764146f8c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b9773571-a692-4ba2-aaa9-1b93d11062ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DD30DD6-2C82-4AFB-8110-8DCF731036FA}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A26A2249-5494-4F43-8B68-BD612413E6E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4c13c8ee-05e2-4241-be9c-b96764146f8c"/>
+    <ds:schemaRef ds:uri="b9773571-a692-4ba2-aaa9-1b93d11062ad"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2656B25-9ADD-4BD2-ADA3-3AB0EB05AD0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>